--- a/artifacts/recipes/new_data/allrecipescom/lowcarb/low_side-dishes.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/lowcarb/low_side-dishes.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699642220-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Low-Carb Side Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699642228-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZTbL1Lpmw54U4QDQZAI4wNHai50=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/14423-9d0d4f5ece8140708b78fab8833e10c8.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22440/lemon-pepper-zucchini/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Lemon Pepper Zucchini</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 medium zucchini, cut into 1/2-inch slices\n\n\n3 tablespoons butter, melted\n\n\n2 tablespoons lemon-pepper seasoning"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 medium zucchini, cut into 1/2-inch slices\n\n\n3 tablespoons butter, melted\n\n\n2 tablespoons lemon-pepper seasoning'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Place zucchini slices on a baking sheet. Brush zucchini with melted butter, then sprinkle lemon-pepper seasoning over top."},{"recipe_directions":"Bake in the preheated oven until tender, 20 to 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"94\nCalories\n\n\n9g \nFat\n\n\n4g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699642237-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TJKb8gu5Tc35yew5VgOXPPvORVQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(704x0:706x2):format(webp)/6823854-7828c7ad44174ffdb3fe698a1b274b68.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16370/green-goddess-salad-dressing/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Green Goddess Salad Dressing</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups mayonnaise\n\n\n4  anchovy fillets, minced\n\n\n1  green onion, chopped\n\n\n2 teaspoons chopped fresh parsley\n\n\n2 teaspoons chopped fresh chives\n\n\n1 tablespoon tarragon vinegar\n\n\n1 teaspoon chopped fresh tarragon"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups mayonnaise\n\n\n4  anchovy fillets, minced\n\n\n1  green onion, chopped\n\n\n2 teaspoons chopped fresh parsley\n\n\n2 teaspoons chopped fresh chives\n\n\n1 tablespoon tarragon vinegar\n\n\n1 teaspoon chopped fresh tarragon'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together mayonnaise, anchovy, green onion, parsley, chives, vinegar and tarragon."},{"recipe_directions":"Refrigerate until ready to serve and pour over favorite salad or greens."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Salad Dressing Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"533\nCalories\n\n\n59g \nFat\n\n\n3g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699642245-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F1NbDdzXTpfxI5SPMYiLdtHmR7o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/28907-4d5ad0565b1f42faa4c03dc00265c602.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21432/oklahoma-cheese-grits/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Oklahoma Cheese Grits</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 11 mins\n\n\nAdditional Time:\n4 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups water\n\n\n1 ½ cups quick-cooking grits, dry\n\n\n¾ cup butter\n\n\n1 pound processed cheese, cubed\n\n\n2 teaspoons seasoning salt\n\n\n1 tablespoon Worcestershire sauce\n\n\n½ teaspoon hot pepper sauce\n\n\n2 teaspoons salt\n\n\n3  eggs, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups water\n\n\n1 ½ cups quick-cooking grits, dry\n\n\n¾ cup butter\n\n\n1 pound processed cheese, cubed\n\n\n2 teaspoons seasoning salt\n\n\n1 tablespoon Worcestershire sauce\n\n\n½ teaspoon hot pepper sauce\n\n\n2 teaspoons salt\n\n\n3  eggs, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease a 9x13 inch baking dish."},{"recipe_directions":"In a medium saucepan, bring the water to a boil. Stir in grits, and reduce heat to low. Cover, and cook 5 to 6 minutes, stirring occasionally. Mix in the butter, cheese, seasoning salt, Worcestershire sauce, hot pepper sauce, and salt. Continue cooking for 5 minutes, or until the cheese is melted. Remove from heat, cool slightly, and fold in the eggs. Pour into the prepared baking dish."},{"recipe_directions":"Bake 1 hour in the preheated oven, or until the top is lightly browned."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"},{"recipe_tags":"Polenta Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"258\nCalories\n\n\n22g \nFat\n\n\n6g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699642250-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QqBBLOYk6TWiAGvx2m4ywXx1Uj4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5580577-ce699b2728f2468ab52686bab706deba.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267773/cauliflower-hash-browns/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Cauliflower Hash Browns</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ head cauliflower, grated\n\n\n½ cup shredded extra-sharp Cheddar cheese\n\n\n1 large egg, beaten\n\n\n¼ cup panko bread crumbs\n\n\n⅛ cup chopped green onion\n\n\n¾ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon smoked paprika\n\n\n1 tablespoon extra-virgin olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ head cauliflower, grated\n\n\n½ cup shredded extra-sharp Cheddar cheese\n\n\n1 large egg, beaten\n\n\n¼ cup panko bread crumbs\n\n\n⅛ cup chopped green onion\n\n\n¾ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon smoked paprika\n\n\n1 tablespoon extra-virgin olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place grated cauliflower, Cheddar cheese, egg, panko, green onion, salt, pepper, and paprika in a large bowl. Mix until combined; mixture will be very crumbly."},{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat until hot. Scoop up some cauliflower mixture using an ice cream scoop; pat into a flat patty. Gently place patty in hot oil; reduce heat to medium. Repeat with remaining mixture. Cook until a golden brown crust forms, about 5 minutes per side. Remove to a platter and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"},{"recipe_tags":"Fried"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"140\nCalories\n\n\n9g \nFat\n\n\n10g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699642259-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/28Q7PuKvoysQ7F9vPZ-EIUIZ1_A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/6604568-45c01b81529549bca95443325c184969.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273120/loaded-cheesy-cauliflower/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Loaded Cheesy Cauliflower</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large head cauliflower, cut into bite-sized pieces\n\n\n1 cup shredded mozzarella cheese\n\n\n½ cup sour cream\n\n\n½ cup mayonnaise\n\n\n¼ cup bacon bits\n\n\n3 tablespoons chopped fresh chives\n\n\n1 cup shredded sharp Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large head cauliflower, cut into bite-sized pieces\n\n\n1 cup shredded mozzarella cheese\n\n\n½ cup sour cream\n\n\n½ cup mayonnaise\n\n\n¼ cup bacon bits\n\n\n3 tablespoons chopped fresh chives\n\n\n1 cup shredded sharp Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add cauliflower; cover, and steam until tender, 8 to 10 minutes. Drain and let cool 10 minutes."},{"recipe_directions":"Combine mozzarella cheese, sour cream, mayonnaise, 1/2 the bacon bits, and chives in a large bowl. Add cauliflower; mix well. Pour mixture into a baking dish. Sprinkle remaining bacon bits and Cheddar cheese on top."},{"recipe_directions":"Bake in the preheated oven until cheese is melted and golden brown, 15 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"365\nCalories\n\n\n30g \nFat\n\n\n10g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699642266-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wIv5JVg7GwUa_hDcK4YDsXyPy5Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Down-Home-Collard-Greens-2000-184a1448ae244763814f5cdbf71a1781.jpg"
@@ -529,59 +850,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228057/down-home-collard-greens/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Down Home Collard Greens</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 bunch collard greens, chopped\n\n\n1 (16 ounce) package hickory-smoked bacon, diced\n\n\n½ cup butter\n\n\n1 large onion, chopped\n\n\n2 cubes  chicken bouillon, crumbled\n\n\n1 cup water\n\n\n4 cloves garlic, minced\n\n\n½ teaspoon dried oregano\n\n\n1 pinch ground thyme, or to taste\n\n\n1 pinch dried savory, or to taste\n\n\n4 teaspoons milk"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 bunch collard greens, chopped\n\n\n1 (16 ounce) package hickory-smoked bacon, diced\n\n\n½ cup butter\n\n\n1 large onion, chopped\n\n\n2 cubes  chicken bouillon, crumbled\n\n\n1 cup water\n\n\n4 cloves garlic, minced\n\n\n½ teaspoon dried oregano\n\n\n1 pinch ground thyme, or to taste\n\n\n1 pinch dried savory, or to taste\n\n\n4 teaspoons milk'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Put collard greens in a pot full of lightly salted water; bring to a boil, reduce heat to medium-low, and cook until tender, about 1 hour. Drain."},{"recipe_directions":"Cook bacon in a large skillet over medium-high heat until crisp, about 10 minutes. Drain the bacon on paper towels."},{"recipe_directions":"Melt butter in a large pot over medium heat. Cook and stir onion in melted butter until tender, 7 to 10 minutes. Stir bacon, chicken bouillon, water, garlic, oregano, thyme, and savory into the onion; bring to a boil. Stir collard greens into the mixture and simmer 5 minutes. Pour milk over the mixture, stir, and cook another 5 minutes."},{"recipe_directions":"This is part of a special feature in our February-March 2022 magazine issue. Check it out for more recipes!"}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"301\nCalories\n\n\n26g \nFat\n\n\n7g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699642273-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3YJIuKg-L0mC1qFKB4MAaaQ0cSk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7457916-8a3d4f6c446c4f3e90532021608c6ea2.jpg"
@@ -594,59 +911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25285/green-bean-and-mushroom-medley/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Green Bean and Mushroom Medley</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound fresh green beans, cut into 1-inch lengths\n\n\n2  carrots, cut into thick strips\n\n\n¼ cup butter\n\n\n1  onion, sliced\n\n\n½ pound fresh mushrooms, sliced\n\n\n1 teaspoon salt\n\n\n½ teaspoon seasoned salt\n\n\n¼ teaspoon garlic salt\n\n\n¼ teaspoon white pepper"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound fresh green beans, cut into 1-inch lengths\n\n\n2  carrots, cut into thick strips\n\n\n¼ cup butter\n\n\n1  onion, sliced\n\n\n½ pound fresh mushrooms, sliced\n\n\n1 teaspoon salt\n\n\n½ teaspoon seasoned salt\n\n\n¼ teaspoon garlic salt\n\n\n¼ teaspoon white pepper'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a pot with 1-inch water and bring to a boil over high heat. Place green beans and carrots in boiling water. Cover and cook until tender but still firm. Drain."},{"recipe_directions":"Melt butter in a large skillet over medium heat. Sauté onions and mushrooms until almost tender. Reduce heat, cover, and simmer 3 minutes."},{"recipe_directions":"Stir in green beans, carrots, salt, seasoned salt, garlic salt, and white pepper. Cover and cook for 5 minutes over medium heat."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"103\nCalories\n\n\n8g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699642278-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/92aC7NBjVyx5FMQmEqBrE_haKVY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/445051-f5546201f345450990c7078365f726bf.jpg"
@@ -659,59 +972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25246/sesame-green-beans/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sesame Green Beans</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 tablespoon sesame seeds\n\n\n1 pound fresh green beans, cut into 2 inch pieces\n\n\n¼ cup chicken broth\n\n\n¼ teaspoon salt\n\n\n  freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 tablespoon sesame seeds\n\n\n1 pound fresh green beans, cut into 2 inch pieces\n\n\n¼ cup chicken broth\n\n\n¼ teaspoon salt\n\n\n  freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet or wok over medium heat. Add sesame seeds and stir until seeds begin to darken. Add green beans; cook and stir until beans turn bright green."},{"recipe_directions":"Pour in chicken broth, salt, and pepper. Cover and cook until beans are tender-crisp, about 10 minutes. Uncover and cook until liquid evaporates."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"78\nCalories\n\n\n5g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699642286-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7vi-eDvNxb6pIPyytrc630-Si5g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/925450-133d00cdbe40445c83f4593a1c5d013e.jpg"
@@ -724,59 +1033,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/48464/garlic-sauteed-artichokes/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Garlic Sautéed Artichokes</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large large artichokes (about 1 pound each)\n\n\n3 cloves garlic, coarsely chopped\n\n\n2 tablespoons butter"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large large artichokes (about 1 pound each)\n\n\n3 cloves garlic, coarsely chopped\n\n\n2 tablespoons butter'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse artichokes under cold water. With a sharp knife, cut off the top third of each artichoke and trim the stems to about 1 inch. Remove the smaller leaves from around the base, then snip off any sharp leaf tips. Cut each artichoke in half from the bottom to the top, then use a spoon to scrape out the hairy choke. Rinse again to remove any residual hairs."},{"recipe_directions":"Melt butter in a large skillet over medium heat. Add garlic and sauté until fragrant, about 1 minute. Place artichoke halves into the skillet, cut-sides down. Sauté until lightly browned, 5 to 10 minutes."},{"recipe_directions":"Reduce the heat to low. Pour in about 1/4 cup water, cover, and steam until tender and the stem is pierced easily with a fork, 15 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"92\nCalories\n\n\n6g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699642291-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8q1hxA5Law_NuzTsfFCL7YohQIQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1839x0:1841x2):format(webp)/8284316-61711ca8e12e4aa4830094c319d93b66.jpg"
@@ -789,59 +1094,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/49439/the-best-steamed-asparagus/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>The Best Steamed Asparagus</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound fresh asparagus spears, trimmed\n\n\n¼ cup white wine\n\n\n2 tablespoons butter"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound fresh asparagus spears, trimmed\n\n\n¼ cup white wine\n\n\n2 tablespoons butter'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place asparagus in a microwave-safe dish. Pour in wine and dot with butter."},{"recipe_directions":"Cover loosely and cook in the microwave on high until bright green and tender, about 3 minutes. Allow the dish to stand for 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Asparagus"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"86\nCalories\n\n\n6g \nFat\n\n\n5g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699642296-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/anLNf1qK1nlk7xi09kx3kGB8uFg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/211650-2bb86bb524c34520b1a6f127e29f24c5.jpg"
@@ -854,59 +1155,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20861/cheesy-creamed-spinach-casserole/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Cheesy Creamed Spinach Casserole</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n1 2-quart casserole"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (10 ounce) packages frozen chopped spinach, thawed and squeezed dry\n\n\n2 cups sour cream\n\n\n1 (1 ounce) package dry onion soup mix\n\n\n½ cup shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (10 ounce) packages frozen chopped spinach, thawed and squeezed dry\n\n\n2 cups sour cream\n\n\n1 (1 ounce) package dry onion soup mix\n\n\n½ cup shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a 2-quart casserole dish."},{"recipe_directions":"Mix spinach, sour cream, and soup mix together in a bowl until well combined. Spoon mixture into the prepared casserole dish and sprinkle Cheddar over top."},{"recipe_directions":"Bake in the preheated oven until heated through and cheese is melted, about 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Casseroles"},{"recipe_tags":"Spinach Casserole"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"180\nCalories\n\n\n15g \nFat\n\n\n7g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699642300-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/E59Wtl9at1kzSd22bMgqvCxjIGY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2509086-keto-cauliflower-bacon-cheese-mash-Carol-Castellucci-Miller-4x3-1-319964e763194865b2e9d2f4b8918694.jpg"
@@ -920,59 +1217,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270642/keto-cauliflower-bacon-cheese-mash/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Keto Cauliflower Bacon Cheese Mash</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound bacon, diced\n\n\n1 large head cauliflower, cut into florets\n\n\n1 cup shredded Parmesan cheese\n\n\n4 tablespoons unsalted butter, at room temperature \n\n\n2 tablespoons medium-chain triglyceride (MCT) oil \n\n\n½ tablespoon apple cider vinegar\n\n\n  sea salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound bacon, diced\n\n\n1 large head cauliflower, cut into florets\n\n\n1 cup shredded Parmesan cheese\n\n\n4 tablespoons unsalted butter, at room temperature \n\n\n2 tablespoons medium-chain triglyceride (MCT) oil \n\n\n½ tablespoon apple cider vinegar\n\n\n  sea salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large skillet and cook over medium-high heat, turning occasionally, until evenly browned, 5 to 10 minutes. Drain on paper towels, reserving grease in the skillet."},{"recipe_directions":"Place cauliflower in a metal or silicone steamer basket inside a multi-functional pressure cooker (such as Instant Pot®). Add 1 cup water to the pot. Close and lock the lid. Select Steam function; set timer for 4 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid."},{"recipe_directions":"Drain cauliflower and transfer to a deep bowl. Add Parmesan cheese, butter, MCT oil, vinegar, and salt. Mix with an immersion blender until smooth. Stir in diced bacon. Add 1 to 2 tablespoons of the reserved bacon grease."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"},{"recipe_tags":"Mashed"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"399\nCalories\n\n\n32g \nFat\n\n\n12g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699642305-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RlzAZ-FN1bjVUP8b9tqu9UA5c08=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2734066-liberian-style-collard-greens-Jon-4x3-1-a3a453270b0340ceb0640d74882e524a.jpg"
@@ -986,59 +1279,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221980/liberian-style-collard-greens/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Liberian Style Collard Greens</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 2 hrs 20 mins\n\n\nTotal Time:\n 2 hrs 35 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 slices bacon\n\n\n1 bunch collard greens, chopped\n\n\n⅓ cup vegetable oil\n\n\n3 cups water, plus more as needed\n\n\n3 cubes  chicken bouillon\n\n\n⅓ cup creamy peanut butter\n\n\n1 teaspoon liquid smoke flavoring\n\n\n1 pinch soul food seasoning, or to taste\n\n\n1 pinch cayenne pepper, or to taste\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n2 (6 ounce) fillets flounder"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 slices bacon\n\n\n1 bunch collard greens, chopped\n\n\n⅓ cup vegetable oil\n\n\n3 cups water, plus more as needed\n\n\n3 cubes  chicken bouillon\n\n\n⅓ cup creamy peanut butter\n\n\n1 teaspoon liquid smoke flavoring\n\n\n1 pinch soul food seasoning, or to taste\n\n\n1 pinch cayenne pepper, or to taste\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n2 (6 ounce) fillets flounder'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large deep skillet and cook over medium-high heat, turning occasionally, until evenly browned, about 10 minutes. Drain bacon slices on a paper towel-lined plate and crumble."},{"recipe_directions":"Heat collard greens, vegetable oil, water, and chicken bouillon in a large pot over medium heat. Simmer until greens are wilted, about 10 minutes. Stir crumbled bacon, peanut butter, liquid smoke, soul food seasoning, cayenne pepper, salt, and black pepper into the pot; cover and simmer until greens are very tender and peanut butter begins to separate, about 1 1/2 hours. Add more water if mixture becomes too dry."},{"recipe_directions":"Stir flounder fillets into greens. Continue to cook, stirring frequently, until fish breaks down, about 30 minutes more."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"318\nCalories\n\n\n25g \nFat\n\n\n6g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699642309-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nf1lt1LOAeHstCHVdrE95y9fpUE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/874978-2d18104afd044716a33960fa83b6cdf3.jpg"
@@ -1051,59 +1340,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16526/insalata-caprese-ii/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Insalata Caprese</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large ripe tomatoes, sliced 1/4 inch thick\n\n\n1 pound fresh mozzarella cheese, sliced 1/4 inch thick\n\n\n⅓ cup fresh basil leaves\n\n\n3 tablespoons extra virgin olive oil\n\n\nfine sea salt and freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large ripe tomatoes, sliced 1/4 inch thick\n\n\n1 pound fresh mozzarella cheese, sliced 1/4 inch thick\n\n\n⅓ cup fresh basil leaves\n\n\n3 tablespoons extra virgin olive oil\n\n\nfine sea salt and freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Alternate and overlap tomato slices, mozzarella cheese slices, and basil leaves on a large platter. Drizzle with olive oil. Season with sea salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"309\nCalories\n\n\n24g \nFat\n\n\n6g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699642313-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KkDLpub0pWHbazYdkYX6ouC2LGg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/601121-stir-fried-snow-peas-and-mushrooms-abapplez-4x3-1-7977b936ef7c41288208c75f756a0cc0.jpg"
@@ -1117,59 +1402,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/31483/stir-fried-snow-peas-and-mushrooms/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Stir Fried Snow Peas and Mushrooms</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon sesame seeds\n\n\n1 tablespoon olive oil\n\n\n½ pound snow peas\n\n\n4 ounces fresh mushrooms, thinly sliced\n\n\n2 tablespoons teriyaki sauce"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon sesame seeds\n\n\n1 tablespoon olive oil\n\n\n½ pound snow peas\n\n\n4 ounces fresh mushrooms, thinly sliced\n\n\n2 tablespoons teriyaki sauce'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook and stir sesame seeds in a medium skillet over medium heat until lightly browned, about 5 minutes. Remove from heat; set aside."},{"recipe_directions":"Heat oil in the skillet over medium-high heat. Stir in snow peas and mushrooms. Cook until tender, 3 to 4 minutes."},{"recipe_directions":"Transfer snow peas and mushrooms to a medium bowl. Toss with toasted sesame seeds and teriyaki sauce; serve warm."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Peas"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"83\nCalories\n\n\n5g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699642317-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7JieJnOxGVrilpSGUHOeT3p0Vsk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8116663-801306bb476349758443e62a338ab362.jpg"
@@ -1182,59 +1463,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18266/cheesy-baked-cauliflower/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Cheesy Baked Cauliflower</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head cauliflower\n\n\n¼ cup butter, cut into pieces\n\n\n1 teaspoon mayonnaise\n\n\n1 teaspoon prepared mustard\n\n\n½ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head cauliflower\n\n\n¼ cup butter, cut into pieces\n\n\n1 teaspoon mayonnaise\n\n\n1 teaspoon prepared mustard\n\n\n½ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Steam whole head of cauliflower for 30 minutes. Drain and place on a pie plate."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"In a mixing bowl, combine mayonnaise and mustard; spread the mixture over cauliflower and dot with pats of butter. Sprinkle generously with Parmesan cheese."},{"recipe_directions":"Bake in the preheated oven uncovered, for about 30 minutes, or until cheese is brown."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n13g \nFat\n\n\n7g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699642321-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/l08rirkFMTvj6juZW5G7tJRE_8c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7215319-4892428d886b4cf590b89fa4bd80a9ec.jpg"
@@ -1247,59 +1524,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18326/savory-spinach-casserole/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Savory Spinach Casserole</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package cream cheese, softened\n\n\n¼ cup milk\n\n\n2 (10 ounce) packages frozen chopped spinach\n\n\n⅓ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package cream cheese, softened\n\n\n¼ cup milk\n\n\n2 (10 ounce) packages frozen chopped spinach\n\n\n⅓ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Combine cream cheese and milk in a mixing bowl; mix until blended. Spoon spinach into 1-quart casserole, top with cream cheese mixture, and sprinkle with Parmesan cheese."},{"recipe_directions":"Bake in the preheated oven for 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Casseroles"},{"recipe_tags":"Spinach Casserole"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"180\nCalories\n\n\n15g \nFat\n\n\n5g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699642326-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rblyUwKJMoA7fsITKySoZhMfgww=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3930959-364163ec90eb4d6a8b89813de499bd0a.jpg"
@@ -1312,59 +1585,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25267/zucchini-saute/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Zucchini Saute</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n½  red onion, diced\n\n\n  salt and pepper to taste\n\n\n4  zucchini, halved and sliced\n\n\n½ pound fresh mushrooms, sliced\n\n\n1  tomato, diced\n\n\n1 clove garlic, minced\n\n\n1 teaspoon Italian seasoning"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n½  red onion, diced\n\n\n  salt and pepper to taste\n\n\n4  zucchini, halved and sliced\n\n\n½ pound fresh mushrooms, sliced\n\n\n1  tomato, diced\n\n\n1 clove garlic, minced\n\n\n1 teaspoon Italian seasoning'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium heat. Saute onion with salt and pepper for 2 minutes. Stir in zucchini and mushrooms. When zucchini begins to soften, add tomatoes, garlic and Italian seasoning. Cook until heated through."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"68\nCalories\n\n\n3g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699642329-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/J9vCccRRxoqn4dgOPeRJMxTkNRY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/112691-6367350890e4498880c0ac2daf5f5661.jpg"
@@ -1377,59 +1646,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20886/homemade-coleslaw/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Homemade Coleslaw</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon distilled white vinegar\n\n\n1 cup mayonnaise\n\n\n2 tablespoons prepared Dijon-style mustard\n\n\n3 cups shredded cabbage\n\n\n3 cups shredded red cabbage\n\n\n1 cup grated carrot\n\n\n½ cup shredded green bell pepper\n\n\n½ cup shredded rell bell pepper\n\n\n½ cup shredded celery"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon distilled white vinegar\n\n\n1 cup mayonnaise\n\n\n2 tablespoons prepared Dijon-style mustard\n\n\n3 cups shredded cabbage\n\n\n3 cups shredded red cabbage\n\n\n1 cup grated carrot\n\n\n½ cup shredded green bell pepper\n\n\n½ cup shredded rell bell pepper\n\n\n½ cup shredded celery'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small bowl combine vinegar, mayonnaise, and mustard."},{"recipe_directions":"In a large bowl combine cabbage, carrots, bell peppers, and celery."},{"recipe_directions":"Pour dressing over vegetables, mixing evenly to coat. Chill and serve over lettuce leaves."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"With Mayo"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"228\nCalories\n\n\n22g \nFat\n\n\n8g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699642335-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6YOpQ51IRdrmfauz92ZJT74U2_Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/383252-texas-coleslaw-Alberta-Rose-4x3-1-9756f3ea72514446a660a62b2f517668.jpg"
@@ -1443,59 +1708,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20666/texas-coleslaw/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Texas Coleslaw</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup mayonnaise\n\n\n1 tablespoon lime juice\n\n\n1 tablespoon ground cumin\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 medium head green cabbage, rinsed and very thinly sliced\n\n\n1 large carrot, shredded\n\n\n2  green onions, sliced\n\n\n2  radishes, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup mayonnaise\n\n\n1 tablespoon lime juice\n\n\n1 tablespoon ground cumin\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 medium head green cabbage, rinsed and very thinly sliced\n\n\n1 large carrot, shredded\n\n\n2  green onions, sliced\n\n\n2  radishes, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together mayonnaise, lime juice, cumin, cayenne, salt, and pepper in a large bowl. Add cabbage, carrot, green onions, and radishes and stir until well-combined. Chill at least 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"With Mayo"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"236\nCalories\n\n\n22g \nFat\n\n\n9g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699642340-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/q0kLzMjRV_rZtuFIYfb4-uF3Dss=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/43076-e0d9a758634c449e916fceb0c7562c97.jpg"
@@ -1508,59 +1769,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/52955/deep-fried-spinach/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Deep Fried Spinach</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups peanut oil for frying\n\n\n1 (10 ounce) package washed fresh spinach\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups peanut oil for frying\n\n\n1 (10 ounce) package washed fresh spinach\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in deep-fryer to 375 degrees F (190 degrees C). Place a large handful of fresh spinach in fryer basket, and submerge to cook for about thirty seconds. Drain spinach on paper towels, and repeat with remaining batches. Add a little salt and pepper to taste."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"211\nCalories\n\n\n22g \nFat\n\n\n3g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699642344-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/h7UCm-o4wR9oFV4nsI75m5K-Ops=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2054048-spinach-and-mushroom-casserole-Kareem-Amer-4x3-1-caf9ce27be1440909868137696ddb93a.jpg"
@@ -1574,59 +1831,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25902/spinach-and-mushroom-casserole/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Spinach and Mushroom Casserole</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons butter\n\n\n1 pound fresh mushrooms, sliced\n\n\n2 (10 ounce) packages fresh spinach, rinsed and stems removed\n\n\n1 teaspoon salt\n\n\n4 tablespoons butter, melted\n\n\n¼ cup finely chopped onion\n\n\n1 ½ cups shredded Cheddar cheese, divided"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons butter\n\n\n1 pound fresh mushrooms, sliced\n\n\n2 (10 ounce) packages fresh spinach, rinsed and stems removed\n\n\n1 teaspoon salt\n\n\n4 tablespoons butter, melted\n\n\n¼ cup finely chopped onion\n\n\n1 ½ cups shredded Cheddar cheese, divided'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a 2 quart casserole dish."},{"recipe_directions":"Melt 2 tablespoons butter in a large skillet over medium heat. Saute mushrooms until tender, about 8 to 10 minutes."},{"recipe_directions":"Meanwhile, place spinach in a large pot. Wilt over medium heat; drain, squeezing or pressing out excess water. Place in prepared baking dish and top with salt, 4 tablespoons melted butter, onion and 1/2 of the cheese. Layer mushrooms on top and sprinkle with remaining cheese."},{"recipe_directions":"Bake in preheated oven for 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Casseroles"},{"recipe_tags":"Spinach Casserole"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"257\nCalories\n\n\n22g \nFat\n\n\n8g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699642347-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sAP9XBUTVikg5z1bFSJzU-7ccwc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/274965-3291cc257ae844309a170b48d287cd47.jpg"
@@ -1639,59 +1892,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25248/lemon-pepper-green-beans/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Lemon Pepper Green Beans</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound fresh green beans, rinsed and trimmed\n\n\n2 tablespoons butter\n\n\n¼ cup sliced almonds\n\n\n2 teaspoons lemon pepper"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound fresh green beans, rinsed and trimmed\n\n\n2 tablespoons butter\n\n\n¼ cup sliced almonds\n\n\n2 teaspoons lemon pepper'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place green beans in a steamer over 1-inch boiling water. Cover and cook until tender but still firm, about 10 minutes; drain."},{"recipe_directions":"Melt butter in a skillet over medium heat. Sauté almonds until lightly browned. Season with lemon pepper. Stir in green beans; toss to coat."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"81\nCalories\n\n\n6g \nFat\n\n\n6g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699642351-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rUmFrPkIXhAShbwwhvSErM-KdiI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/7023765-f14c707196444b2cb0789c32ace6e0ab.jpg"
@@ -1704,59 +1953,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275868/keto-smothered-green-beans/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Keto Smothered Green Beans</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 ounces center-cut bacon, cut into small pieces\n\n\n1 tablespoon butter, or as needed\n\n\n1 pound fresh green beans, trimmed\n\n\n  salt and ground black pepper to taste\n\n\n½ teaspoon garlic powder\n\n\n3 tablespoons water\n\n\n2 cups shredded sharp Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 ounces center-cut bacon, cut into small pieces\n\n\n1 tablespoon butter, or as needed\n\n\n1 pound fresh green beans, trimmed\n\n\n  salt and ground black pepper to taste\n\n\n½ teaspoon garlic powder\n\n\n3 tablespoons water\n\n\n2 cups shredded sharp Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook bacon in an oven-proof skillet over medium-high heat until brown and crispy, 5 to 6 minutes. Remove with a slotted spoon to a paper towel-lined plate, reserving bacon grease in the skillet. Reduce heat to medium and add enough butter to equal 2 tablespoons of fat in the skillet."},{"recipe_directions":"Add green beans to the skillet and season with salt and pepper to taste. Sprinkle with garlic powder, toss to coat, and saute for 3 to 4 minutes. Add water to help steam the beans. Continue cooking until water has evaporated and beans are crisp-tender or cooked to your liking, 3 to 4 more minutes."},{"recipe_directions":"Set an oven rack about 6 inches from the heat source and preheat the oven's broiler."},{"recipe_directions":"Top beans with shredded Cheddar cheese and sprinkle with cooked bacon."},{"recipe_directions":"Place skillet under broiler until cheese has melted, about 1 minute. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"240\nCalories\n\n\n19g \nFat\n\n\n6g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699642356-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yuCfvYc4EqjnHK-SsYKAuyw2Xok=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/747081-10655235f1c1410f96d27fe8ced53751.jpg"
@@ -1769,59 +2014,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/58645/asparagus-parmesan/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Asparagus Parmesan</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n¼ cup olive oil\n\n\n1 pound fresh asparagus spears, trimmed\n\n\n¾ cup grated Parmesan cheese\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n¼ cup olive oil\n\n\n1 pound fresh asparagus spears, trimmed\n\n\n¾ cup grated Parmesan cheese\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter with olive oil in a large skillet over medium heat. Add asparagus spears and cook, stirring occasionally, for about 10 minutes, or to desired firmness. Drain off excess oil, and sprinkle with Parmesan cheese, salt, and pepper."},{"recipe_directions":"Note: The butter can be substituted with extra olive oil. I use butter for the flavor."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Asparagus"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n18g \nFat\n\n\n4g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699642362-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DG6AmZxYd6GBXqaPfdoC0mJ7d2s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/114410-pan-fried-swiss-chard-cinderelly007-4x3-1-8698b39befc9411f8ff8df0eb5c846fb.jpg"
@@ -1835,59 +2076,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/147026/pan-fried-swiss-chard/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Pan Fried Swiss Chard</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 slices bacon, chopped\n\n\n2 tablespoons butter\n\n\n3 tablespoons fresh lemon juice\n\n\n½ teaspoon garlic paste\n\n\n1 bunch Swiss chard, stems removed, leaves cut into 1-inch pieces \n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 slices bacon, chopped\n\n\n2 tablespoons butter\n\n\n3 tablespoons fresh lemon juice\n\n\n½ teaspoon garlic paste\n\n\n1 bunch Swiss chard, stems removed, leaves cut into 1-inch pieces \n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a skillet over medium heat. Place the chopped bacon in the skillet and cook until the fat separates from the meat. Melt the butter in the skillet. Stir in the lemon juice and garlic paste. Add the Swiss chard to the butter mixture. When the leaves begin to wilt, place a cover on the skillet and increase heat to medium-high. Allow the chard to cook while covered for about 4 minutes. Stir the chard leaves to coat with the butter mixture. Season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"333\nCalories\n\n\n32g \nFat\n\n\n7g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699642367-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ectJWlpXBzou6x9_VZvP5NMjDrQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/4570916-e4c8c95abcda4e229ed1bae940d2d0b9.jpg"
@@ -1900,59 +2137,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261030/parmesan-roasted-cauliflower/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Parmesan-Roasted Cauliflower</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head cauliflower, cut into small florets\n\n\n1 teaspoon salt\n\n\n1 teaspoon mixed herbs\n\n\n½ teaspoon ground black pepper\n\n\n3 tablespoons olive oil\n\n\n½ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head cauliflower, cut into small florets\n\n\n1 teaspoon salt\n\n\n1 teaspoon mixed herbs\n\n\n½ teaspoon ground black pepper\n\n\n3 tablespoons olive oil\n\n\n½ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C). Line a baking sheet with aluminum foil."},{"recipe_directions":"Arrange cauliflower on the prepared baking sheet. Sprinkle with salt, mixed herbs, and pepper. Drizzle with olive oil; toss until well coated. Sprinkle Parmesan cheese on top."},{"recipe_directions":"Roast in the preheated oven until crisp, 10 to 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"},{"recipe_tags":"Roasted"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"171\nCalories\n\n\n13g \nFat\n\n\n8g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699642372-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0IodFXb--KORoyQNUKebdx9YosA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/7618866-5002169bdb1a4c37803df2d46899f827.jpg"
@@ -1965,59 +2198,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/266797/keto-cauliflower-hash-browns/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Keto Cauliflower Hash Browns</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 patties"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups grated cauliflower\n\n\n1 cup shredded Cheddar cheese\n\n\n1 large egg\n\n\n¼ cup real bacon bits\n\n\n1 tablespoon diced chives\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n1 pinch cayenne pepper (Optional)\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups grated cauliflower\n\n\n1 cup shredded Cheddar cheese\n\n\n1 large egg\n\n\n¼ cup real bacon bits\n\n\n1 tablespoon diced chives\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n1 pinch cayenne pepper (Optional)\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Place grated cauliflower in a microwave-safe bowl. Cook on high for 2 minutes. Let cool for 5 minutes."},{"recipe_directions":"Wring cauliflower in a clean dish towel, squeezing out as much moisture as possible. Transfer cauliflower to a large mixing bowl. Add Cheddar cheese, egg, bacon bits, chives, salt, pepper, and cayenne. Mix well."},{"recipe_directions":"Spray a large baking sheet with cooking spray. Divide cauliflower mixture into 6 equal portions, making sure to leave space between each one. Flatten with your hands and shape into ovals."},{"recipe_directions":"Bake in the preheated oven until browned, about 15 minutes. Turn broiler on low and broil until crispy, about 5 minutes. Let cool for 5 minutes to firm up."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"},{"recipe_tags":"Roasted"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"118\nCalories\n\n\n8g \nFat\n\n\n3g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699642378-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EvNz6l1mkivXR_70q4HITKk4odw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4318293-0c771a52bde3429596f4bfe484bbb93f.jpg"
@@ -2030,59 +2259,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242140/loaded-cauliflower-casserole/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Loaded Cauliflower Casserole</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 slices turkey bacon, or more to taste\n\n\n1 large head cauliflower, cut into florets\n\n\n½ cup sour cream\n\n\n½ cup mayonnaise\n\n\n1 clove garlic, minced\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups shredded Colby-Monterey Jack cheese, divided\n\n\n1 (8 ounce) package baby bella mushrooms, roughly chopped\n\n\n6 tablespoons chopped fresh chives, divided"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 slices turkey bacon, or more to taste\n\n\n1 large head cauliflower, cut into florets\n\n\n½ cup sour cream\n\n\n½ cup mayonnaise\n\n\n1 clove garlic, minced\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups shredded Colby-Monterey Jack cheese, divided\n\n\n1 (8 ounce) package baby bella mushrooms, roughly chopped\n\n\n6 tablespoons chopped fresh chives, divided'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 425 degrees F (220 degrees C). Grease a 9x13-inch baking dish."},{"recipe_directions":"Place turkey bacon in a large skillet and cook over medium-high heat, turning occasionally, until evenly browned, about 10 minutes. Drain the bacon slices on paper towels and crumble."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add cauliflower, cover, and steam until tender, 15 to 20 minutes."},{"recipe_directions":"Combine sour cream, mayonnaise, garlic, salt, and black pepper in a large bowl; add cauliflower, 1/2 of the bacon, 1 cup Colby-Monterey Jack cheese, mushrooms, and 3 tablespoons chives and mix well. Transfer mixture to the prepared baking dish and top with remaining bacon and cheese."},{"recipe_directions":"Bake in the preheated oven until bubbling and cheese is melted, about 20 minutes. Sprinkle remaining chives over casserole."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Casseroles"},{"recipe_tags":"Cauliflower"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"346\nCalories\n\n\n29g \nFat\n\n\n9g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699642383-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/e9KyEHbpoXf9AnS7KNErSSsl4Gw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/9295085-6a02284c83784a518d7b7eb0d0556c28.jpg"
@@ -2095,59 +2320,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269422/low-carb-twice-baked-cauliflower-casserole/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Low-Carb, Twice-Baked Cauliflower Casserole</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n1 8-inch dish"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large head cauliflower, chopped\n\n\n1 ½ cups shredded reduced-fat Cheddar cheese\n\n\n½ cup bacon bits (such as Hormel®)\n\n\n½ (8 ounce) package low-fat cream cheese\n\n\n½ cup low-fat sour cream\n\n\n¼ cup minced green onions\n\n\n3 tablespoons butter\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large head cauliflower, chopped\n\n\n1 ½ cups shredded reduced-fat Cheddar cheese\n\n\n½ cup bacon bits (such as Hormel®)\n\n\n½ (8 ounce) package low-fat cream cheese\n\n\n½ cup low-fat sour cream\n\n\n¼ cup minced green onions\n\n\n3 tablespoons butter\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bring a large saucepan of water to a boil. Add cauliflower and cook until tender, but not overly soft, 3 to 5 minutes."},{"recipe_directions":"Drain well and transfer cauliflower to a large bowl. Use a potato masher to mash cauliflower, leaving some chunks."},{"recipe_directions":"Reserve 1/2 cup Cheddar cheese and 1 tablespoon bacon bits. Mix remaining 1 cup Cheddar cheese, remaining bacon bits, cream cheese, sour cream, green onions, butter, salt, and pepper into mashed cauliflower in the bowl."},{"recipe_directions":"Transfer mixture to an 8-inch square baking dish. Sprinkle reserved Cheddar cheese and bacon bits on top. Bake in the preheated oven until hot and bubbly, 30 to 35 minutes."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"240\nCalories\n\n\n16g \nFat\n\n\n11g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699642389-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/N2AqI_1kCH7ki4ANsN8nL2kzePk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/847913-9e01110b52744df58f3a06e8187084c6.jpg"
@@ -2160,59 +2381,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16693/mashed-yellow-squash/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Mashed Yellow Squash</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n3 to 4 servings"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  yellow squash\n\n\n1 tablespoon minced onion\n\n\n1 tablespoon butter\n\n\n½ cup milk\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  yellow squash\n\n\n1 tablespoon minced onion\n\n\n1 tablespoon butter\n\n\n½ cup milk\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Slice and steam or boil squash until tender. Pour off any remaining water."},{"recipe_directions":"Mash the squash slightly. In a medium size pot place mashed squash, onion, butter, milk, salt and pepper. Mix well and heat over a medium flame. Serve warm."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Summer Squash"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"73\nCalories\n\n\n4g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699642394-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4tVOFQjLeUIHCFkYnorU_ly6RL0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/745494-2626e17c0ac1452c8e943b060c9147ab.jpg"
@@ -2225,59 +2442,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/34946/asparagus-with-parmesan-crust/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Asparagus with Parmesan Crust</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound thin asparagus spears\n\n\n1 tablespoon extra virgin olive oil\n\n\n1 ounce shaved Parmesan cheese\n\n\n  freshly ground black pepper to taste\n\n\n¼ cup balsamic vinegar, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound thin asparagus spears\n\n\n1 tablespoon extra virgin olive oil\n\n\n1 ounce shaved Parmesan cheese\n\n\n  freshly ground black pepper to taste\n\n\n¼ cup balsamic vinegar, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Place asparagus on a baking sheet. Drizzle with olive oil, and toss to coat. Arrange asparagus spears in a single layer. Spread Parmesan cheese over asparagus, and season with freshly ground black pepper."},{"recipe_directions":"Bake 12 to 15 minutes in the preheated oven, until cheese is melted and asparagus is tender but crisp. Serve immediately on warm plates, sprinkling with balsamic vinegar to taste."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Asparagus"},{"recipe_tags":"Baked"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"93\nCalories\n\n\n6g \nFat\n\n\n7g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699642399-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TZy5SFliDc7bFxtjpMTWXV4wBIk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5580092-2000-b5c95ae6be784bde8b04d25d8ede29bb.jpg"
@@ -2289,59 +2502,55 @@
 15 Keto Side Dishes That Keep the Flavor and Cut the Carbs</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/keto-side-dishes/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>15 Keto Side Dishes That Keep the Flavor and Cut the Carbs</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Just because you're going low-carb doesn't mean you have to miss out on delicious side dishes. Our collection of keto recipes ranges from cheesy and decadent mashed cauliflower to light and refreshing zoodle salad. No matter what your main dish of choice is, you're sure to find a keto-friendly side that pairs up perfectly. Browse this collection of keto side dishes to find the right partner for your dinner."},{"recipe_directions":"Recipe creator Carol Castellucci Miller says, \"You will never miss eating mashed potatoes again now that you can have this deliciously creamy, bacon-cheese flavored mashed cauliflower instead!\""},{"recipe_directions":"By sautéing the Brussels sprouts before giving them a quick cook in the Instant Pot, the exterior gains a caramelized taste that's irresistible."},{"recipe_directions":"Can't decide between a salad or pasta for your side? This low-carb option satisfies cravings for both! Zucchini is spiralized into veggie-based noodles and tossed with tangy feta, briny olives, and fresh tomatoes."},{"recipe_directions":"This comforting casserole dresses up cauliflower with a rich Cheddar cheese sauce. The ingredients list is kept simple, so home cooks can dress it up with their favorite seasoning blends."},{"recipe_directions":"Move aside potatoes. Zucchini are the base for these super savory fries. Parmesan cheese, seasonings, and egg create a crispy coating, but these get soggy quickly according to reviewers, so eat them right out of the oven."},{"recipe_directions":"\"This recipe is delicious,\" says SUZYKAZOO. \"I am not crazy about the cauliflower taste of cauliflower rice but the carbs are so much better than rice. I don't taste the cauliflower in this.\""},{"recipe_directions":"The perfect summery side dish, this roasted ratatouille is bursting with fresh flavor. Zucchini, eggplant, bell peppers, and more all roast to perfection on a single baking sheet for easy clean up."},{"recipe_directions":"Crunchy, creamy, and tangy, this easy side salad has it all. It makes just enough for two servings, so you don't have to worry about soggy leftover cucumber."},{"recipe_directions":"Almond flour is key to creating these fluffy yet keto-friendly biscuits. If you're craving garlic bread, reviewer Ana Cawthon suggests adding a dash of garlic powder to spice things up."},{"recipe_directions":"Great for breakfast or dinner, this savory hash has all the flavor you've come to expect from the traditional potato version, but none of the carbs."},{"recipe_directions":"Cauliflower stands in for macaroni in this irresistibly cheesy recipe. \"Great for the Keto diet! Even my kids liked it,\" says reviewer emmypowers."},{"recipe_directions":"Jazz up asparagus with a salty wrapping of bacon and side of creamy sauce. Don't skip the lemon in the aioli, it pairs perfectly with the asparagus' earthy taste."},{"recipe_directions":"Even picky eaters will enjoy this roasted version of eggplant. Smoked paprika adds a deep savory flavor, while the olive oil helps the veggies bake to golden brown perfection."},{"recipe_directions":"This recipe magically transforms a whole head of cauliflower into this Middle Eastern-inspired side dish. Parsley and mint add a fresh flavor, while lemon and olive oil create a tangy dressing."},{"recipe_directions":"\"These garlic-seasoned green beans are sautéed until crisp-tender, then topped with cheese and bacon for a delicious keto side dish,\" says recipe creator France C. \"I like to shred my own cheese as I find it melts better than the bagged variety.\""}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Keto Diet Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699642405-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SxX-TkO859PwGzzoVPoD2UNxhtM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/40441-ab9034dd6aa448d88cb987d0c955d60c.jpg"
@@ -2354,59 +2563,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19921/grilled-zucchini-ii/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Grilled Sliced Zucchini</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large zucchini\n\n\n¼ cup Italian-style salad dressing"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large zucchini\n\n\n¼ cup Italian-style salad dressing'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill and lightly oil the grate."},{"recipe_directions":"Cut zucchini into 1/4-inch slices. Toss in a large bowl with Italian dressing until evenly coated."},{"recipe_directions":"Cook on the preheated grill until grill marks appear and zucchini is slightly limp, 4 to 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"},{"recipe_tags":"Grilled Zucchini Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"74\nCalories\n\n\n6g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699642411-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/69FCAIVQKPEMEbqMu7Qa1HS7c_c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/39304-stuffed-pattypan-squash-DDMFS-4x3-1-bcf43701974a4bdf9e2b545aaf9fce14.jpg"
@@ -2420,59 +2625,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/39304/stuffed-pattypan-squash/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Stuffed Pattypan Squash</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  pattypan squash, stem and blossom removed\n\n\n6 slices bacon\n\n\n½ cup diced onion\n\n\n1 ½ cups soft bread crumbs\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  pattypan squash, stem and blossom removed\n\n\n6 slices bacon\n\n\n½ cup diced onion\n\n\n1 ½ cups soft bread crumbs\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bring one inch of water to a boil in a saucepan over medium-high heat. Add squash, cover, and cook for 10 minutes, or until a fork can pierce the stem with little resistance. Drain, and slice off the top stem of the squash. Use a melon baller to carefully scoop out the centers of the squash. Reserve all of the bits of squash."},{"recipe_directions":"Place bacon in a large, deep skillet. Cook over medium high heat until evenly brown. Remove bacon to paper towels, and set aside. Saute onion in bacon drippings. Chop the reserved squash pieces, and saute them with the onion for one minute."},{"recipe_directions":"Remove the skillet from heat, and stir in the breadcrumbs. Crumble the bacon, and stir into the stuffing along with the Parmesan cheese. Season to taste with salt and pepper. Stuff each squash to overflowing with the mixture, and place them in a baking dish. Cover the dish loosely with aluminum foil."},{"recipe_directions":"Bake for 15 minutes in the preheated oven, or until squash are heated through."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"187\nCalories\n\n\n14g \nFat\n\n\n8g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699642416-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MQVPwLpmz3OgZlUYdauZtWtFdIo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1378444-prosciutto-wrapped-asparagu-Aaron-Newcomer-4x3-1-c64f1dc06fb54b0cbea38b1b8fd3eb1d.jpg"
@@ -2486,59 +2687,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/42704/prosciutto-wrapped-asparagus/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Prosciutto Wrapped Asparagus</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound prosciutto, sliced\n\n\n½ (8 ounce) package Neufchatel cheese, softened\n\n\n12 spears fresh asparagus, trimmed"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound prosciutto, sliced\n\n\n½ (8 ounce) package Neufchatel cheese, softened\n\n\n12 spears fresh asparagus, trimmed'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Spread prosciutto slices with Neufchatel cheese. Wrap slices around 2 or 3 asparagus spears. Arrange wrapped spears in a single layer on a medium baking sheet."},{"recipe_directions":"Bake 15 minutes in the preheated oven, until asparagus is tender."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Asparagus"},{"recipe_tags":"Baked"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"292\nCalories\n\n\n25g \nFat\n\n\n3g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699642420-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AACWauD0olkd3F2EIR3sCVLO1qI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/388884-1192c0240573464e82a08508aa530712.jpg"
@@ -2551,59 +2748,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57337/down-south-style-green-beans/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Down-South Style Green Beans</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups water\n\n\n1  ham hock\n\n\n2 tablespoons lard or other cooking fat\n\n\n1 teaspoon seasoning salt\n\n\n½ teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon onion powder\n\n\n1 pound fresh green beans - rinsed, trimmed and snapped into bite size pieces"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups water\n\n\n1  ham hock\n\n\n2 tablespoons lard or other cooking fat\n\n\n1 teaspoon seasoning salt\n\n\n½ teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon onion powder\n\n\n1 pound fresh green beans - rinsed, trimmed and snapped into bite size pieces'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the water, ham hock, and lard in a large pot over medium-high heat. Season with seasoning salt, salt, pepper, garlic powder, and onion powder. Bring to a boil, then reduce heat to medium-low, and add green beans. Simmer covered for about 2 hours."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"152\nCalories\n\n\n11g \nFat\n\n\n6g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699642424-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/38DXKQDDGTWLIz0Gv4937fNBzcs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/79554-e4dc9e4ffe304103a551f3c967acea32.jpg"
@@ -2616,59 +2809,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25249/creamed-spinach-ii/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Creamed Spinach II</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (10 ounce) packages frozen chopped spinach\n\n\n1 (10.75 ounce) can  condensed cream of mushroom soup\n\n\n1 tablespoon butter\n\n\n  garlic salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (10 ounce) packages frozen chopped spinach\n\n\n1 (10.75 ounce) can  condensed cream of mushroom soup\n\n\n1 tablespoon butter\n\n\n  garlic salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare spinach according to package directions; drain well."},{"recipe_directions":"In a large saucepan over medium-high heat, combine spinach, mushroom soup and butter. Bring to a low boil. Season with garlic salt to taste."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"88\nCalories\n\n\n6g \nFat\n\n\n7g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699642428-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oU0VGMpSbKHU_Lf2bd1RoKZLAZo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/470343-995472f772eb49da8bb36822a1d462fc.jpg"
@@ -2681,59 +2870,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16891/grilled-zucchini-and-squash/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Grilled Zucchini and Squash</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  zucchini, halved lengthwise and cut in 1/4 inch slices\n\n\n1  summer squash, thinly sliced\n\n\n¾ cup butter\n\n\n1 tablespoon salt\n\n\n2 tablespoons ground black pepper\n\n\n2 tablespoons garlic powder"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  zucchini, halved lengthwise and cut in 1/4 inch slices\n\n\n1  summer squash, thinly sliced\n\n\n¾ cup butter\n\n\n1 tablespoon salt\n\n\n2 tablespoons ground black pepper\n\n\n2 tablespoons garlic powder'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat grill for medium-high heat."},{"recipe_directions":"Place the zucchini, and squash on a large sheet of aluminum foil, and dot with butter. Season with salt, pepper, and garlic powder. Seal vegetables in the foil."},{"recipe_directions":"Place the foil pack on the preheated grill, and cook 20 minutes, until vegetables are tender."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"},{"recipe_tags":"Grilled Zucchini Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"234\nCalories\n\n\n23g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699642432-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jrfUXa0KD7usYZfHKVcGbBOH9BU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1056443-e8da974a09aa44e8b5de6853ee67091f.jpg"
@@ -2746,59 +2931,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/87365/wilted-spinach/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Wilted Spinach</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n3 mins\n\n\nAdditional Time:\n2 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup extra virgin olive oil\n\n\n2 tablespoons balsamic vinegar\n\n\n1 teaspoon lemon juice\n\n\n1 tablespoon bottled minced garlic\n\n\n1 pinch sea salt\n\n\n1 pinch ground black pepper\n\n\n4 ounces baby spinach\n\n\n1 ½ tablespoons pine nuts"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup extra virgin olive oil\n\n\n2 tablespoons balsamic vinegar\n\n\n1 teaspoon lemon juice\n\n\n1 tablespoon bottled minced garlic\n\n\n1 pinch sea salt\n\n\n1 pinch ground black pepper\n\n\n4 ounces baby spinach\n\n\n1 ½ tablespoons pine nuts'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a bowl, mix the olive oil, vinegar, lemon juice, garlic, salt, and pepper."},{"recipe_directions":"Place the spinach over boiling water in a pot fitted with a steamer basket, and steam 2 to 3 minutes, until wilted but not soggy."},{"recipe_directions":"Toss spinach in a bowl with the dressing, and sprinkle with pine nuts to serve."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"320\nCalories\n\n\n32g \nFat\n\n\n7g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699642436-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/g6c7iCdkNnpdm1fUr_bB41qT0ys=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/610614-56c962aa7d6d4e6da97dbdd4027b8da3.jpg"
@@ -2811,59 +2992,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18288/garlic-green-beans/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Garlic Green Beans</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n3 tablespoons olive oil\n\n\n1 medium head garlic - peeled and sliced\n\n\n2 (14.5 ounce) cans green beans, drained\n\n\n  salt and pepper to taste\n\n\n¼ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n3 tablespoons olive oil\n\n\n1 medium head garlic - peeled and sliced\n\n\n2 (14.5 ounce) cans green beans, drained\n\n\n  salt and pepper to taste\n\n\n¼ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large skillet over medium heat, melt butter with olive oil; add garlic, and cook until lightly browned, stirring frequently. Stir in green beans, and season with salt and pepper. Cook until beans are tender, about 10 minutes. Remove from heat, and sprinkle with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"157\nCalories\n\n\n12g \nFat\n\n\n9g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699642440-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/D_nA71F9mZcNZF_arPOKPH2Y-OQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4517333-43706a11efc64f8880b3000a4d58f6a0.jpg"
@@ -2876,59 +3053,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25360/creamy-mushrooms/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Creamy Mushrooms</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup butter\n\n\n½ pound fresh mushrooms, sliced\n\n\n2 tablespoons all-purpose flour\n\n\n1 ¼ cups milk\n\n\n2 teaspoons soy sauce\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup butter\n\n\n½ pound fresh mushrooms, sliced\n\n\n2 tablespoons all-purpose flour\n\n\n1 ¼ cups milk\n\n\n2 teaspoons soy sauce\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a medium saucepan over medium heat. Saute mushrooms until tender. Stir in flour, milk and soy sauce; cook, stirring, until thickened. Season with salt and pepper to taste."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"168\nCalories\n\n\n13g \nFat\n\n\n9g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699642448-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yEy39wNa9TgqK5szSD9IYhpD3Bc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(722x0:724x2):format(webp)/5131084-3e69973ea95d4705bc46c6eb2f1d0e43.jpg"
@@ -2941,59 +3114,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18412/roasted-garlic-without-foil/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Roasted Garlic without Foil</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 medium head garlic\n\n\n2 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 medium head garlic\n\n\n2 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Method 1: Preheat oven to 250 degrees F (125 degrees C). Slice 1/4 inch off top of garlic bulb. Place in a small baking dish and drizzle with olive oil. Bake in preheated oven for 20 minutes, until outside is lightly browned and garlic cloves are soft. When cool enough to touch, squeeze each clove to extract softened garlic."},{"recipe_directions":"Method 2: Preheat oven to 250 degrees F (125 degrees C). Peel each garlic clove. Place in a single layer in a small baking dish and drizzle with olive oil. Bake for 15 minutes, until garlic is soft."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"81\nCalories\n\n\n7g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699642453-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vCbL4R77J4C3oIF4CTViI_8Yxws=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/105341-9175f6f872c045d1af7861dfbfc0620d.jpg"
@@ -3006,59 +3175,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14157/tomato-cucumber-salad/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Tomato Cucumber Salad</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  tomatoes, chopped\n\n\n1  cucumber, peeled and diced\n\n\n1  onion, chopped\n\n\n1 tablespoon lemon juice\n\n\nsalt and ground black peper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  tomatoes, chopped\n\n\n1  cucumber, peeled and diced\n\n\n1  onion, chopped\n\n\n1 tablespoon lemon juice\n\n\nsalt and ground black peper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine tomatoes, cucumber, and onion in a salad bowl. Sprinkle with lemon juice; season with salt and black pepper. Mix until well combined. Place in the refrigerator to chill before serving."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"46\nCalories\n\n\n0g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699642459-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1KuopT7QBAqgEChGHI9QPo15YsU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/632369-1c60ec25eca84182acafd84564d2c9c2.jpg"
@@ -3071,59 +3236,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21094/easy-spinach-souffle/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Easy Spinach Souffle</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n5 \n\n\nYield:\n4 to 6 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  egg\n\n\n⅓ cup 1% milk\n\n\n⅓ cup grated Parmesan cheese\n\n\n1 teaspoon crushed garlic\n\n\n  salt and pepper to taste\n\n\n2 (10 ounce) packages frozen chopped spinach, thawed and drained"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  egg\n\n\n⅓ cup 1% milk\n\n\n⅓ cup grated Parmesan cheese\n\n\n1 teaspoon crushed garlic\n\n\n  salt and pepper to taste\n\n\n2 (10 ounce) packages frozen chopped spinach, thawed and drained'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"In a medium bowl whisk together egg, milk, cheese, garlic, salt and pepper. Fold in spinach. Place in a small casserole dish."},{"recipe_directions":"Bake in preheated oven for 20 minutes, or until lightly set."},{"recipe_directions":"NOTE: If you are in a hurry, use a microwave safe casserole dish, cover with plastic wrap, and cook on high for 3 minutes. Release the steam, recover, and cook on high for another 3 minutes. Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"89\nCalories\n\n\n4g \nFat\n\n\n7g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699642462-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HyPYeyj8PGhhu_z8_s3y6feGgL0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2728046-c43dcadf1e28432988d57c4f2cc408f2.jpg"
@@ -3136,59 +3297,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21181/marias-broccoli-rabe/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Maria's Broccoli Rabe</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound broccoli rabe, trimmed\n\n\n5 tablespoons extra virgin olive oil\n\n\n1 clove garlic, minced\n\n\n1 tablespoon grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound broccoli rabe, trimmed\n\n\n5 tablespoons extra virgin olive oil\n\n\n1 clove garlic, minced\n\n\n1 tablespoon grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of salted water to a boil. Cut an X in the bottom of the stems of the broccoli rabe and place in the boiling water. Cook until just tender but still firm, about 3 to 5 minutes. Drain."},{"recipe_directions":"In a large heavy skillet over medium heat, heat olive oil and sauté garlic for 1 to 2 minutes. Stir in the broccoli rabe and sauté for 8 to 10 minutes, or until desired doneness. Sprinkle with parmesan cheese, if desired."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Broccoli"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"192\nCalories\n\n\n17g \nFat\n\n\n6g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699642468-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QVU4VSUDDbT5KCOo6bmdwyOEfu8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1116672-grilled-onions-SunnyDaysNora-4x3-1-13baafcdb69d46bfab4699e82d971e59.jpg"
@@ -3202,59 +3359,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14564/grilled-onions/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Grilled Onions</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large onions\n\n\n½ cup butter\n\n\n4 cubes  chicken bouillon"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large onions\n\n\n½ cup butter\n\n\n4 cubes  chicken bouillon'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Peel outer layer off onions. Slice a small section off of one end of each onion, and make a small hole in the center. Fill the center of each onion with a bouillon cube and 2 tablespoons butter. Replace the top of the onion, and wrap in aluminum foil."},{"recipe_directions":"Place onions on preheated grill over indirect heat, and close the lid. Cook until tender, about 1 hour. Remove the tops, and cut into bite size chunks. Place in a serving dish with all the juices from the foil."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"137\nCalories\n\n\n12g \nFat\n\n\n8g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699642473-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ixf_pJb-c1o4_Hqt-bZACbEe2q8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/210528-17a1ccd3e6f6438197749b7fdd03f6e5.jpg"
@@ -3267,59 +3420,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/47613/sugar-snap-peas/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Sugar Snap Peas</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound sugar snap peas\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon chopped shallots\n\n\n1 teaspoon chopped fresh thyme\n\n\n  kosher salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound sugar snap peas\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon chopped shallots\n\n\n1 teaspoon chopped fresh thyme\n\n\n  kosher salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Spread sugar snap peas in a single layer on a baking sheet and brush with olive oil. Sprinkle with shallots, thyme, and kosher salt."},{"recipe_directions":"Bake in the preheated oven until tender yet firm, 6 to 8 minutes."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"59\nCalories\n\n\n3g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699642478-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YByKR2TNcXgZJ8yUgFnSFJWjnJY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/213957-4927c83007ad4d92bf6224e95469c6ee.jpg"
@@ -3332,59 +3481,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/50097/braised-celery/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Braised Celery</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 bunch celery, cleaned and cut into 4 inch pieces\n\n\n½ teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n2 tablespoons butter or margarine\n\n\n1 cube chicken bouillon\n\n\n1 cup boiling water\n\n\n1 tablespoon minced fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 bunch celery, cleaned and cut into 4 inch pieces\n\n\n½ teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n2 tablespoons butter or margarine\n\n\n1 cube chicken bouillon\n\n\n1 cup boiling water\n\n\n1 tablespoon minced fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Arrange the celery in a single layer on the bottom of a large skillet. Season with salt and pepper. Dot with butter. Dissolve the bouillon cube in boiling water, and pour over the celery."},{"recipe_directions":"Cover pan, and bring to a boil over medium-high heat. Reduce heat to low, and simmer for 30 minutes. Sprinkle with parsley before serving."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"76\nCalories\n\n\n6g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699642483-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_h639p_O-rAanTjrZUrBCb2h4P4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(463x479:465x481):format(webp)/1019864-artichokes-Nanby-4x3-1-6b6243a3ab3748a49d9b71bde4aca128.jpg"
@@ -3398,59 +3543,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18345/artichokes/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Artichokes</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  whole artichokes\n\n\n2 tablespoons butter\n\n\n2 cloves garlic, sliced\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  whole artichokes\n\n\n2 tablespoons butter\n\n\n2 cloves garlic, sliced\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill the pan with just enough water to cover bottom. Bring to a full boil over high heat. While water is heating, trim and discard the stems and tough outer leaves of artichokes. Tuck slivers of butter and slices of garlic into artichoke leaves."},{"recipe_directions":"When water is boiling, place steamer insert in pot and set artichokes in steamer, stem-side down. Cover pot with lid and allow artichokes to steam for approximately 20 minutes, until tender."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"133\nCalories\n\n\n12g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699642488-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/db3lcuPY0L7-3TVmdymPt1Dwzh0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/431783-e6dcd1ee54934f87809f9b45eaa975e6.jpg"
@@ -3463,59 +3604,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18258/caramelized-red-bell-peppers-and-onions/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Caramelized Red Bell Peppers and Onions</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  red bell pepper, cut into strips\n\n\n2  red onions, cut into strips\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon butter\n\n\n¼ cup red wine (Optional)\n\n\n1 pinch salt\n\n\n1 pinch ground black pepper\n\n\n1 pinch dried basil"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  red bell pepper, cut into strips\n\n\n2  red onions, cut into strips\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon butter\n\n\n¼ cup red wine (Optional)\n\n\n1 pinch salt\n\n\n1 pinch ground black pepper\n\n\n1 pinch dried basil'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine bell pepper, onions, oil, and butter in a hot saucepan over medium heat; sauté for 2 minutes. Reduce heat to medium-low and continue cooking, stirring occasionally, until onions and peppers soften."},{"recipe_directions":"Stir red wine into vegetables and cook until wine evaporates, 15 to 25 minutes. Season with salt, pepper, and basil."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Onion"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"93\nCalories\n\n\n5g \nFat\n\n\n9g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699642491-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZoysDHJxSsnwN3MB2TQ730w19ik=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/279501-34a3fba771ac47f59eec9ac31743cf97.jpg"
@@ -3528,59 +3665,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/50885/pumpkin-fritters/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Pumpkin Fritters</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n24 \n\n\nYield:\n24 fritters"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup pumpkin puree\n\n\n1 cup all-purpose flour\n\n\n1 large egg, lightly beaten\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon curry powder\n\n\n1 teaspoon salt\n\n\n4 cups vegetable oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup pumpkin puree\n\n\n1 cup all-purpose flour\n\n\n1 large egg, lightly beaten\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon curry powder\n\n\n1 teaspoon salt\n\n\n4 cups vegetable oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine pumpkin, flour, egg, baking powder, curry powder, and salt in a large bowl. Mix until batter is smooth."},{"recipe_directions":"Heat oil in a deep saucepan to 325 degrees F (165 degrees C)."},{"recipe_directions":"Working in batches, drop batter by spoonfuls into hot oil. Fry until golden brown all over, about 2 minutes. Remove to a paper towel-lined plate using a slotted spoon. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"350\nCalories\n\n\n37g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699642494-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xlA8QkSm_5WjjvIXrTJ90ZU2LC8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4480836-269609f1e43b430a9eeb28aa9ddc3bc6.jpg"
@@ -3593,59 +3726,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18333/steamed-zucchini/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Steamed Zucchini</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  zucchini\n\n\n2 cloves garlic\n\n\n1 tablespoon olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  zucchini\n\n\n2 cloves garlic\n\n\n1 tablespoon olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Trim ends from zucchini. Cut each one in half, then cut each half lengthwise into quarters."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add zucchini to the steamer insert; cover and steam until tender, 10 to 15 minutes."},{"recipe_directions":"Transfer zucchini to a large bowl. Mash garlic and place in the bowl with zucchini. Drizzle with olive oil; toss until zucchini is evenly coated."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"60\nCalories\n\n\n4g \nFat\n\n\n6g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699642498-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DbnJ_6BfiI25dm5VlqwX9zIWWUU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/79311-creamed-cucumber-slices-humblepieliving-003-1x1-1-9d2146e8ef2c44699b01fe9257aca08b.jpg"
@@ -3659,59 +3788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/79311/creamed-cucumber-slices/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Creamed Cucumber Slices</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup mayonnaise\n\n\n¼ cup milk\n\n\n1 teaspoon sugar\n\n\n½ teaspoon white vinegar\n\n\n1 large cucumber, sliced\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup mayonnaise\n\n\n¼ cup milk\n\n\n1 teaspoon sugar\n\n\n½ teaspoon white vinegar\n\n\n1 large cucumber, sliced\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix mayonnaise, milk, sugar, and vinegar together in a bowl until smooth. Add cucumber and toss until well coated. Season with salt and pepper. Chill in the refrigerator for 30 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"417\nCalories\n\n\n44g \nFat\n\n\n6g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699642502-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Bkgnwd0ZTOB6WCDD6JwHB-LjIOk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6993403-be81cbe376864af1a656d1b71b2ff161.jpg"
@@ -3724,59 +3849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21145/homemade-stewed-tomatoes/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Homemade Stewed Tomatoes</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10  ripe tomatoes\n\n\n2 teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10  ripe tomatoes\n\n\n2 teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to a boil. Fill a large bowl with ice water and set it aside."},{"recipe_directions":"Cut a shallow X on the bottom of each tomato. This will make peeling much easier. Place tomatoes in boiling water until the skin begins to peel back, about 30 seconds to 1 minute."},{"recipe_directions":"Transfer tomatoes into the bowl of ice water; set aside for 5 minutes. Remove tomatoes from water; peel off the skin with your hands and slice into quarters."},{"recipe_directions":"Transfer tomatoes into a large saucepan over low heat; stir in salt. Simmer, stirring occasionally to prevent burning, until slightly thickened, about 20 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"14\nCalories\n\n\n0g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699642507-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/e1JiRGIGQ-70aCKvrkeqD46YPOw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1030239-quick-and-simple-broccoli-and-cheese-pomplemousse-1x1-1-c3e7d91f765a49308773053809525558.jpg"
@@ -3790,59 +3911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21155/quick-and-simple-broccoli-and-cheese/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Quick and Simple Broccoli and Cheese</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10 ounce) package frozen broccoli florets, thawed\n\n\n3 tablespoons butter, melted, or to taste\n\n\n  salt and pepper to taste\n\n\n½ cup shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10 ounce) package frozen broccoli florets, thawed\n\n\n3 tablespoons butter, melted, or to taste\n\n\n  salt and pepper to taste\n\n\n½ cup shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place broccoli in a steamer over 1 inch of boiling water and cover. Cook until tender but still firm, 2 to 6 minutes. Drain and transfer to a microwave-safe casserole dish."},{"recipe_directions":"Pour melted butter over broccoli and season with salt and pepper. Sprinkle cheese over the top and microwave on high until cheese is melted, about 1 minute."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Broccoli"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"152\nCalories\n\n\n14g \nFat\n\n\n4g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699642511-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2lcKZpB3Qk7URUCMJICNjHihTys=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/18329-smothered-green-beans-4x3-0728-a5aa05cb6298493ca7b0d343587f8eb3.jpg"
@@ -3856,59 +3973,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18329/smothered-green-beans/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Smothered Green Beans</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 thick slices bacon, chopped\n\n\n½ cup onions, minced\n\n\n1 teaspoon minced garlic\n\n\n1 pound fresh green beans, trimmed\n\n\n1 cup water, or as needed\n\n\n⅛ teaspoon salt\n\n\n1 pinch ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 thick slices bacon, chopped\n\n\n½ cup onions, minced\n\n\n1 teaspoon minced garlic\n\n\n1 pound fresh green beans, trimmed\n\n\n1 cup water, or as needed\n\n\n⅛ teaspoon salt\n\n\n1 pinch ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large, deep skillet over medium-high heat; cook until fat begins to render. Stir in onion and garlic; cook and stir for 1 minute."},{"recipe_directions":"Stir in beans and water. Cook until water has evaporated and beans are tender. Add more water as needed until beans are tender. Season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"98\nCalories\n\n\n5g \nFat\n\n\n7g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699642515-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Oc_JcAebh3eSVA4JleZ1gTDfTOA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/23724-PanFriedGreenBeans-MFS-4x3-0216-ce2c60114fdc4ba98a19c31bba213e67.jpg"
@@ -3922,59 +4035,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23724/pan-fried-green-beans/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Pan Fried Green Beans</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds fresh green beans, trimmed and snapped\n\n\n¼ teaspoon garlic powder, or to taste\n\n\n¼ teaspoon onion powder, or to taste\n\n\n  salt and pepper to taste\n\n\n3 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds fresh green beans, trimmed and snapped\n\n\n¼ teaspoon garlic powder, or to taste\n\n\n¼ teaspoon onion powder, or to taste\n\n\n  salt and pepper to taste\n\n\n3 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather ingredients."},{"recipe_directions":"Combine green beans, garlic powder, onion powder, salt, and pepper in a stainless steel pot over medium-high heat. Cook, covered, until beans begin to sweat. Remove the lid and stir occasionally until beans are tender."},{"recipe_directions":"When beans and spices begin to char on the bottom of the pan, stir in olive oil and turn off heat. Cover and let stand a few minutes."},{"recipe_directions":"Scrape the bottom of the pan to incorporate charred spices. Beans should have a dark, caramel color, but not black."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"114\nCalories\n\n\n8g \nFat\n\n\n10g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699642520-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-TD5M37dK21h6bLce_Sg_KLarbU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/88587easy-portobello-mushroom-sauteDanielleStadelmanRDN-abb04eefd6dd4895a4cb672609364204.jpg"
@@ -3988,59 +4097,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/88587/easy-portobello-mushroom-saute/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Easy Portobello Mushroom Saute</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil, divided, or more as needed\n\n\n1 ½ tablespoons garlic flavored olive oil\n\n\n¼  onion, cut into chunks\n\n\n2  portobello mushroom caps, sliced\n\n\n  salt and black pepper to taste\n\n\n  freshly grated Parmesan\n\n\n  freshly grated Asiago cheese"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil, divided, or more as needed\n\n\n1 ½ tablespoons garlic flavored olive oil\n\n\n¼  onion, cut into chunks\n\n\n2  portobello mushroom caps, sliced\n\n\n  salt and black pepper to taste\n\n\n  freshly grated Parmesan\n\n\n  freshly grated Asiago cheese'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Warm 1 1/2 tablespoons olive oil and garlic-flavored olive oil together in a skillet over medium heat until fragrant, about 1 minute. Stir in onions and mushrooms; reduce heat to low, and cook until the mixture has softened and caramelized, with browning around the edges, 8 to 12 minutes, adding additional olive oil if needed to prevent sticking."},{"recipe_directions":"Turn off heat, drizzle with remaining 1 1/2 tablespoons olive oil, and season with salt and pepper. Sprinkle generously with Parmesan and Asiago cheeses."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Onion"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"349\nCalories\n\n\n34g \nFat\n\n\n7g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699642525-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1594/healthy-recipes/low-carb/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZYYth0s-AtPN4WX1YQJ0xNKwKu8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/356820-46a58b89ee0340e48cec21f436753275.jpg"
@@ -4053,42 +4158,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/55196/simply-steamed-asparagus/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Simply Steamed Asparagus</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 bunch asparagus spears\n\n\n1 teaspoon butter\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 bunch asparagus spears\n\n\n1 teaspoon butter\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place 3 cups water in the bottom half of a steamer pan set. Add butter and salt and bring to a boil."},{"recipe_directions":"Trim dry ends off of asparagus. If spears are thick, peel them lightly with a vegetable peeler."},{"recipe_directions":"Place asparagus spears in the top half of the steamer pan set. Steam until asparagus is tender, 5 to 10 minutes depending on thickness."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Asparagus"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"32\nCalories\n\n\n1g \nFat\n\n\n4g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>